--- a/tables/Swip_TMT_Module_GO_Results.xlsx
+++ b/tables/Swip_TMT_Module_GO_Results.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Module GO Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/tables/Swip_TMT_Module_GO_Results.xlsx
+++ b/tables/Swip_TMT_Module_GO_Results.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Module GO Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sig Module GO Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -67212,4 +67213,7438 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.41796596755046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0000000118262578110497</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00026837326850615</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>95</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.82865923933922</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000000130392281125893</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00116248648856058</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.47577679137603</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000000153679965878541</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00116248648856058</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>53</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.81224867906402</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.000000294132125695591</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00166868508210251</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>95</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25976806422837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000000474847111501394</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00209294655851374</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95</v>
+      </c>
+      <c r="G7" t="n">
+        <v>51</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.82102396904446</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.000000553372376992132</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00209294655851374</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.23859649122807</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00000072812248743782</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00236046908677521</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.38404074702886</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.000000972187815569375</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00275773226233948</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.22526315789474</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00000120080953198555</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00302777452326089</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.68987854251012</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00000149168556196997</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00307734731434405</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.68987854251012</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00000149168556196997</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00307734731434405</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>95</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2478409646407</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.00000186248389996113</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00352211226181817</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="n">
+        <v>95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.50626908568349</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00000216962401789501</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00378732906446857</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="n">
+        <v>67</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.5347979205098</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.000000000000291793324873493</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00000000526477958814459</v>
+      </c>
+      <c r="K15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="n">
+        <v>67</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.8179104477612</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.000000000000464000316233605</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00000000526477958814459</v>
+      </c>
+      <c r="K16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>67</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>27.8899253731343</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.00000000000920827928446674</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0000000696544939341346</v>
+      </c>
+      <c r="K17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="n">
+        <v>67</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>47.3283582089552</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0000000000182497518857342</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000000103535404885741</v>
+      </c>
+      <c r="K18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="n">
+        <v>67</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>40.0470723306544</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0000000000929067137039334</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000000394376248683623</v>
+      </c>
+      <c r="K19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>67</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.92834022657795</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.000000000114466576884036</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.000000394376248683623</v>
+      </c>
+      <c r="K20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>67</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14.3527101335428</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.000000000126079740624916</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000000394376248683623</v>
+      </c>
+      <c r="K21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>67</v>
+      </c>
+      <c r="G22" t="n">
+        <v>18</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.3446275730353</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.000000000139030096922795</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.000000394376248683623</v>
+      </c>
+      <c r="K22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="n">
+        <v>67</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12.9857853589197</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.000000000395250102985034</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.000000896941058703938</v>
+      </c>
+      <c r="K23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="n">
+        <v>67</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12.9857853589197</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.000000000395250102985034</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.000000896941058703938</v>
+      </c>
+      <c r="K24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="n">
+        <v>67</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>26.0305970149254</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.00000000389669499136982</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00000749831775322532</v>
+      </c>
+      <c r="K25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="n">
+        <v>67</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.10077432386938</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.00000000396509113112871</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.00000749831775322532</v>
+      </c>
+      <c r="K26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="n">
+        <v>67</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>26.2493415276558</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.000000051873613486308</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0000905513777572912</v>
+      </c>
+      <c r="K27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="n">
+        <v>67</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.61439154592003</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0000000653835637247619</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.000105982086543287</v>
+      </c>
+      <c r="K28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="n">
+        <v>67</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13.5223880597015</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0000000841717550376519</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.000127340642471296</v>
+      </c>
+      <c r="K29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="n">
+        <v>67</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13.2218905472637</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.00000010129025835533</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.000143661239553593</v>
+      </c>
+      <c r="K30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>67</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23.4862529457973</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.000000111347372954062</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.000148635643202737</v>
+      </c>
+      <c r="K31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="n">
+        <v>67</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21.2494669509595</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.000000218043381637722</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.000274892136639158</v>
+      </c>
+      <c r="K32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="n">
+        <v>67</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>49.5820895522388</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.000000439063036548454</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.000480198497167485</v>
+      </c>
+      <c r="K33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="n">
+        <v>67</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>49.5820895522388</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.000000439063036548454</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.000480198497167485</v>
+      </c>
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="n">
+        <v>67</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11.0182421227197</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.00000044437352666096</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.000480198497167485</v>
+      </c>
+      <c r="K35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="n">
+        <v>67</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.7003142183818</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.000000524115312973686</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.000540624945332357</v>
+      </c>
+      <c r="K36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="n">
+        <v>67</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13.3490241102181</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.000000632025560274328</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.000623589393013275</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>67</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>42.498933901919</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.00000101411548762325</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.000958888448359764</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="n">
+        <v>67</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.8746268656716</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.00000216977083881981</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.00196954438581352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>548</v>
+      </c>
+      <c r="B40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="n">
+        <v>42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>28</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.60549019607843</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0000000229757385841966</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.000521388435691173</v>
+      </c>
+      <c r="K40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>548</v>
+      </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42</v>
+      </c>
+      <c r="G41" t="n">
+        <v>32</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.08717505693866</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.000000165829357729767</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0018815828074808</v>
+      </c>
+      <c r="K41" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="n">
+        <v>42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>37</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.71543013453916</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0000004765544467222</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.00360481668648896</v>
+      </c>
+      <c r="K42" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.43920347744361</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.00000119324420993276</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.00676957271400101</v>
+      </c>
+      <c r="K43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>570</v>
+      </c>
+      <c r="B44" t="s">
+        <v>571</v>
+      </c>
+      <c r="C44" t="s">
+        <v>571</v>
+      </c>
+      <c r="D44" t="s">
+        <v>572</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="n">
+        <v>34</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>48.8529411764706</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.00000000111136252805496</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0000252201498491511</v>
+      </c>
+      <c r="K44" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" t="s">
+        <v>574</v>
+      </c>
+      <c r="C45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D45" t="s">
+        <v>575</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="n">
+        <v>34</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>83.7478991596639</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0000000623500628126848</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.000707454987704129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B46" t="s">
+        <v>577</v>
+      </c>
+      <c r="C46" t="s">
+        <v>577</v>
+      </c>
+      <c r="D46" t="s">
+        <v>578</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="n">
+        <v>34</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10.5627980922099</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.00000052776585924575</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.00399219688128793</v>
+      </c>
+      <c r="K46" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>570</v>
+      </c>
+      <c r="B47" t="s">
+        <v>580</v>
+      </c>
+      <c r="C47" t="s">
+        <v>580</v>
+      </c>
+      <c r="D47" t="s">
+        <v>581</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="n">
+        <v>34</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>25.2687626774848</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.00000115067534835106</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.00522245513602613</v>
+      </c>
+      <c r="K47" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>570</v>
+      </c>
+      <c r="B48" t="s">
+        <v>583</v>
+      </c>
+      <c r="C48" t="s">
+        <v>583</v>
+      </c>
+      <c r="D48" t="s">
+        <v>584</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="n">
+        <v>34</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>25.2687626774848</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.00000115067534835106</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.00522245513602613</v>
+      </c>
+      <c r="K48" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>570</v>
+      </c>
+      <c r="B49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="n">
+        <v>34</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.31757656458056</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.00000166947249146079</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.00562322024904082</v>
+      </c>
+      <c r="K49" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>570</v>
+      </c>
+      <c r="B50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="n">
+        <v>34</v>
+      </c>
+      <c r="G50" t="n">
+        <v>17</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.30876494023904</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.00000173456756459198</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.00562322024904082</v>
+      </c>
+      <c r="K50" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>570</v>
+      </c>
+      <c r="B51" t="s">
+        <v>586</v>
+      </c>
+      <c r="C51" t="s">
+        <v>586</v>
+      </c>
+      <c r="D51" t="s">
+        <v>587</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="n">
+        <v>34</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14.1831119544592</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.00000297361692126358</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0084350360992793</v>
+      </c>
+      <c r="K51" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>570</v>
+      </c>
+      <c r="B52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="n">
+        <v>34</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.14186633039092</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.00000363368423983249</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.00916213293939097</v>
+      </c>
+      <c r="K52" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>570</v>
+      </c>
+      <c r="B53" t="s">
+        <v>588</v>
+      </c>
+      <c r="C53" t="s">
+        <v>588</v>
+      </c>
+      <c r="D53" t="s">
+        <v>589</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="n">
+        <v>34</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>16.2843137254902</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0000109506267610447</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0248502573088387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.58269230769231</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.000000257384473158891</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.00584082584939471</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" t="s">
+        <v>445</v>
+      </c>
+      <c r="D55" t="s">
+        <v>446</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.7853644482858</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.00000196785551628416</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.019783445390123</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7.04933687002652</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.00000275342897983089</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.019783445390123</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.47582417582418</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.00000348714500332666</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.019783445390123</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>76.6615384615385</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.00000620097998465828</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0236344143981781</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11.1643017176998</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.00000624890875552236</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0236344143981781</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>28.3931623931624</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0000081960124987709</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0265703016620869</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.80769230769231</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0000119888599210487</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.027169662425224</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>57.4961538461539</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0000154197841631486</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.027169662425224</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>57.4961538461539</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0000154197841631486</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.027169662425224</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="n">
+        <v>25</v>
+      </c>
+      <c r="G64" t="n">
+        <v>15</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9.99933110367893</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.000000000000633913767473818</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0000000127979272529526</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="n">
+        <v>25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.00000000000112791849935686</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0000000127979272529526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25</v>
+      </c>
+      <c r="G66" t="n">
+        <v>19</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.42561604584527</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.00000000000375130468158133</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.000000028376119046375</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="n">
+        <v>25</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>99.66</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.000000000515294425328606</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.00000292339409849551</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="n">
+        <v>25</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>16.0167857142857</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.00000000160312946803979</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.00000727596340364541</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="n">
+        <v>25</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0000000073454223003963</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0000238128097518419</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="n">
+        <v>25</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0000000073454223003963</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0000238128097518419</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25</v>
+      </c>
+      <c r="G71" t="n">
+        <v>21</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.80920805369127</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0000000296655282603545</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0000841499791015282</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="n">
+        <v>25</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>79.728</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.000000101454852311409</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.000234433411760287</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="n">
+        <v>25</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>39.864</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.000000103306487357461</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.000234433411760287</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="n">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15.5026666666667</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.000000182904876398081</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.000377332760009241</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="n">
+        <v>12</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.60760180995475</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.000000753895295896116</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0171081459497706</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.64615384615385</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.00000260762190760767</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0265290324524297</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.13117243546107</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.00000395822843459803</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0265290324524297</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>11.7339089481947</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.00000467616136296298</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0265290324524297</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="n">
+        <v>12</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.99849563734831</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0000065573497871917</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0297611877441483</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10.4065436825618</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.00000939787132096187</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0346797744396671</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10.1763104152485</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0000106975023609778</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0346797744396671</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7.31104590232656</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.000012929166126843</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0366751958645561</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="n">
+        <v>13</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>14.1965811965812</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0000146491853396177</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0369371069902161</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="n">
+        <v>54.7582417582418</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.000017962627767917</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0385793271972236</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" t="n">
+        <v>23</v>
+      </c>
+      <c r="G85" t="n">
+        <v>18</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.65468967354308</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.00000175421737187254</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0365075611898513</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="n">
+        <v>23</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.54220282296922</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.00000352481210009182</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0365075611898513</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="n">
+        <v>23</v>
+      </c>
+      <c r="G87" t="n">
+        <v>22</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.86258219073347</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.00000482627610142131</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0365075611898513</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="n">
+        <v>23</v>
+      </c>
+      <c r="G88" t="n">
+        <v>19</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.26299686880034</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.00000747453221161738</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0424048898695583</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19</v>
+      </c>
+      <c r="G89" t="n">
+        <v>17</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.66650796398892</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0000000036131862253401</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0000819940350116428</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B90" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.49684210526316</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.00000000789326762609796</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0000895609611195205</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.59523740632505</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.000000156583681381565</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.00118445116053062</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="n">
+        <v>87.421052631579</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.00000389275112498991</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.022084550319849</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="n">
+        <v>25</v>
+      </c>
+      <c r="G93" t="n">
+        <v>11</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7.56041379310345</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0000000461148598736006</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.00104648451511162</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" t="n">
+        <v>25</v>
+      </c>
+      <c r="G94" t="n">
+        <v>16</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.8656</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.000000129268534308468</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.00146674542453103</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" t="n">
+        <v>25</v>
+      </c>
+      <c r="G95" t="n">
+        <v>12</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.6263829787234</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.00000201194005255205</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0152189852041879</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>9.89531914893617</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.00000392684427207295</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0199245221919706</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7.74058252427184</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.00000439001502489108</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0199245221919706</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" t="n">
+        <v>25</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5.13711340206186</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.00000824237519309522</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.031174036709485</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B99" t="s">
+        <v>432</v>
+      </c>
+      <c r="C99" t="s">
+        <v>432</v>
+      </c>
+      <c r="D99" t="s">
+        <v>433</v>
+      </c>
+      <c r="E99" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" t="n">
+        <v>25</v>
+      </c>
+      <c r="G99" t="n">
+        <v>12</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.79657142857143</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.0000163231861986045</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.045478306479582</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" t="n">
+        <v>25</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9.966</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0000209552305107995</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.045478306479582</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" t="n">
+        <v>25</v>
+      </c>
+      <c r="G101" t="n">
+        <v>9</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5.21476744186046</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0000243427926557313</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.045478306479582</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="n">
+        <v>25</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5.21476744186046</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.0000243427926557313</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.045478306479582</v>
+      </c>
+      <c r="K102" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="n">
+        <v>8</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8.35548103123035</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.000000745266411823152</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0129904145762205</v>
+      </c>
+      <c r="K103" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="n">
+        <v>8</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7.90325138778747</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.00000114488296622046</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0129904145762205</v>
+      </c>
+      <c r="K104" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>20.3887070376432</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.000002452299043454</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0185500073977005</v>
+      </c>
+      <c r="K105" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>18.789592760181</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.00000368094781770766</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02088293720681</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+      <c r="H107" t="n">
+        <v>82.1373626373626</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0000049682712405244</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.022548995852244</v>
+      </c>
+      <c r="K107" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" t="n">
+        <v>11.1643017176998</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.00000624890875552236</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0236344143981781</v>
+      </c>
+      <c r="K108" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.46742155870445</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.00000833807846865751</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0270308592413207</v>
+      </c>
+      <c r="K109" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>14.9729567307692</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.000011285927765463</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0320139448477064</v>
+      </c>
+      <c r="K110" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+      <c r="G111" t="n">
+        <v>11</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.30696832579185</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.0000136811200915592</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0344961842486393</v>
+      </c>
+      <c r="K111" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5</v>
+      </c>
+      <c r="H112" t="n">
+        <v>13.5924713584288</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.0000181169532837364</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0411128020867831</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E113" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" t="n">
+        <v>17</v>
+      </c>
+      <c r="G113" t="n">
+        <v>14</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.37470975232198</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.00000079260640565385</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0158371313467698</v>
+      </c>
+      <c r="K113" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B114" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17</v>
+      </c>
+      <c r="G114" t="n">
+        <v>14</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.21854671280277</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0000014788478783469</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.0158371313467698</v>
+      </c>
+      <c r="K114" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17</v>
+      </c>
+      <c r="G115" t="n">
+        <v>11</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.61933254677229</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.00000209365857490457</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0158371313467698</v>
+      </c>
+      <c r="K115" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B116" t="s">
+        <v>559</v>
+      </c>
+      <c r="C116" t="s">
+        <v>559</v>
+      </c>
+      <c r="D116" t="s">
+        <v>560</v>
+      </c>
+      <c r="E116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8.7684766214178</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.00000598318934018484</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0276263619424827</v>
+      </c>
+      <c r="K116" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B117" t="s">
+        <v>563</v>
+      </c>
+      <c r="C117" t="s">
+        <v>563</v>
+      </c>
+      <c r="D117" t="s">
+        <v>564</v>
+      </c>
+      <c r="E117" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8.44371822803195</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.00000769151618586553</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0276263619424827</v>
+      </c>
+      <c r="K117" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B118" t="s">
+        <v>565</v>
+      </c>
+      <c r="C118" t="s">
+        <v>565</v>
+      </c>
+      <c r="D118" t="s">
+        <v>566</v>
+      </c>
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>8.40911282545805</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.0000079042611606878</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.0276263619424827</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>293.117647058824</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0000109565618244544</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.0276263619424827</v>
+      </c>
+      <c r="K119" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="n">
+        <v>17</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>293.117647058824</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.0000109565618244544</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.0276263619424827</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="n">
+        <v>17</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="n">
+        <v>293.117647058824</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.0000109565618244544</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0276263619424827</v>
+      </c>
+      <c r="K121" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="n">
+        <v>152.540816326531</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.000000614085819951734</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.00556494362964231</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>152.540816326531</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.000000614085819951734</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.00556494362964231</v>
+      </c>
+      <c r="K123" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" t="n">
+        <v>133.473214285714</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.000000980909290026406</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.00556494362964231</v>
+      </c>
+      <c r="K124" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>133.473214285714</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.000000980909290026406</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.00556494362964231</v>
+      </c>
+      <c r="K125" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7</v>
+      </c>
+      <c r="H126" t="n">
+        <v>9.09306569343066</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.00000346521429351725</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.0128780296659735</v>
+      </c>
+      <c r="K126" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3</v>
+      </c>
+      <c r="H127" t="n">
+        <v>88.9821428571428</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.00000382809166034824</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0128780296659735</v>
+      </c>
+      <c r="K127" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E128" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3</v>
+      </c>
+      <c r="H128" t="n">
+        <v>82.1373626373626</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.0000049682712405244</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0128780296659735</v>
+      </c>
+      <c r="K128" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E129" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="n">
+        <v>82.1373626373626</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.0000049682712405244</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0128780296659735</v>
+      </c>
+      <c r="K129" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H130" t="n">
+        <v>17.7964285714286</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.00000510740170950345</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.0128780296659735</v>
+      </c>
+      <c r="K130" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E131" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>71.1857142857143</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.00000787788778237618</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.0162520824950421</v>
+      </c>
+      <c r="K131" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7</v>
+      </c>
+      <c r="H132" t="n">
+        <v>13.0689396777819</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.000000402443769103633</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.00913265645226873</v>
+      </c>
+      <c r="K132" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>11.46270128163</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.00000098509924370653</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0111774285687161</v>
+      </c>
+      <c r="K133" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="n">
+        <v>13</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>229.984615384615</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.000000138355679029584</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.00313970542421835</v>
+      </c>
+      <c r="K134" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" t="n">
+        <v>13</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="n">
+        <v>164.274725274725</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.000000482787187590094</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.005477944823991</v>
+      </c>
+      <c r="K135" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12</v>
+      </c>
+      <c r="H136" t="n">
+        <v>20.1945288753799</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.000000000000038985716154546</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.000000000884702856695113</v>
+      </c>
+      <c r="K136" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" t="n">
+        <v>21</v>
+      </c>
+      <c r="G137" t="n">
+        <v>11</v>
+      </c>
+      <c r="H137" t="n">
+        <v>20.3917410714286</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.000000000000592215861186764</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.00000000671957726895562</v>
+      </c>
+      <c r="K137" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B138" t="s">
+        <v>432</v>
+      </c>
+      <c r="C138" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138" t="s">
+        <v>433</v>
+      </c>
+      <c r="E138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" t="n">
+        <v>21</v>
+      </c>
+      <c r="G138" t="n">
+        <v>17</v>
+      </c>
+      <c r="H138" t="n">
+        <v>6.40294784580499</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.00000000000162380970004957</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0000000122830378410749</v>
+      </c>
+      <c r="K138" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" t="n">
+        <v>21</v>
+      </c>
+      <c r="G139" t="n">
+        <v>13</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10.6369458128079</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.0000000000090375021970236</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0000000512720093392641</v>
+      </c>
+      <c r="K139" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E140" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21</v>
+      </c>
+      <c r="G140" t="n">
+        <v>7</v>
+      </c>
+      <c r="H140" t="n">
+        <v>57.2758620689655</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.0000000000114047871084107</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.000000051761766770233</v>
+      </c>
+      <c r="K140" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E141" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21</v>
+      </c>
+      <c r="G141" t="n">
+        <v>14</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8.56185567010309</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.0000000000168977422696811</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.000000063910077554312</v>
+      </c>
+      <c r="K141" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E142" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="n">
+        <v>13</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9.63973214285714</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.0000000000318067128052813</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.000000103112819098607</v>
+      </c>
+      <c r="K142" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+      <c r="G143" t="n">
+        <v>8</v>
+      </c>
+      <c r="H143" t="n">
+        <v>31.1194379391101</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.0000000000564807047747823</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.000000160214579181767</v>
+      </c>
+      <c r="K143" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B144" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" t="s">
+        <v>446</v>
+      </c>
+      <c r="E144" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21</v>
+      </c>
+      <c r="G144" t="n">
+        <v>17</v>
+      </c>
+      <c r="H144" t="n">
+        <v>5.03602639557696</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.0000000000868483046410779</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.00000021245899766471</v>
+      </c>
+      <c r="K144" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E145" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
+      <c r="H145" t="n">
+        <v>71.1857142857143</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.0000000000956865545902925</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.00000021245899766471</v>
+      </c>
+      <c r="K145" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" t="n">
+        <v>21</v>
+      </c>
+      <c r="G146" t="n">
+        <v>13</v>
+      </c>
+      <c r="H146" t="n">
+        <v>8.78835978835979</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.000000000102985456938784</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.00000021245899766471</v>
+      </c>
+      <c r="K146" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E147" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21</v>
+      </c>
+      <c r="G147" t="n">
+        <v>13</v>
+      </c>
+      <c r="H147" t="n">
+        <v>8.66492776886035</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.000000000123186280925612</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.000000232955522753743</v>
+      </c>
+      <c r="K147" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21</v>
+      </c>
+      <c r="G148" t="n">
+        <v>17</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4.88952380952381</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.000000000141114656868799</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.000000246331916024896</v>
+      </c>
+      <c r="K148" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E149" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" t="n">
+        <v>21</v>
+      </c>
+      <c r="G149" t="n">
+        <v>13</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8.40521603736863</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.000000000180995859312064</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.000000293381359669191</v>
+      </c>
+      <c r="K149" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E150" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" t="n">
+        <v>21</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7</v>
+      </c>
+      <c r="H150" t="n">
+        <v>31.3396226415094</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.00000000106134824991866</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.00000160567838902695</v>
+      </c>
+      <c r="K150" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E151" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" t="n">
+        <v>21</v>
+      </c>
+      <c r="G151" t="n">
+        <v>12</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8.27740863787375</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.00000000162198388805222</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.00000216515766891583</v>
+      </c>
+      <c r="K151" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E152" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" t="n">
+        <v>21</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12</v>
+      </c>
+      <c r="H152" t="n">
+        <v>8.27740863787375</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.00000000162198388805222</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.00000216515766891583</v>
+      </c>
+      <c r="K152" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E153" t="s">
+        <v>23</v>
+      </c>
+      <c r="F153" t="n">
+        <v>21</v>
+      </c>
+      <c r="G153" t="n">
+        <v>11</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9.77581594435527</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.00000000186629256192359</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.00000231996470773742</v>
+      </c>
+      <c r="K153" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E154" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21</v>
+      </c>
+      <c r="G154" t="n">
+        <v>11</v>
+      </c>
+      <c r="H154" t="n">
+        <v>9.73933901918977</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.00000000194241966452259</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.00000231996470773742</v>
+      </c>
+      <c r="K154" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="n">
+        <v>21</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7</v>
+      </c>
+      <c r="H155" t="n">
+        <v>26.3650793650794</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.00000000371613266109367</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.00000421650992390993</v>
+      </c>
+      <c r="K155" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E156" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5</v>
+      </c>
+      <c r="H156" t="n">
+        <v>69.7899159663865</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.00000000477207324956422</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.00000515679325011242</v>
+      </c>
+      <c r="K156" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="n">
+        <v>21</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7</v>
+      </c>
+      <c r="H157" t="n">
+        <v>24.4264705882353</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.00000000643102892974475</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.00000663360634103171</v>
+      </c>
+      <c r="K157" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" t="s">
+        <v>58</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" t="n">
+        <v>21</v>
+      </c>
+      <c r="G158" t="n">
+        <v>19</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.06904599824954</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.00000000841914447389772</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.00000830676719765917</v>
+      </c>
+      <c r="K158" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E159" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" t="n">
+        <v>21</v>
+      </c>
+      <c r="G159" t="n">
+        <v>13</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5.96656534954407</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.0000000130057232947877</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.000012297453280359</v>
+      </c>
+      <c r="K159" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" t="n">
+        <v>21</v>
+      </c>
+      <c r="G160" t="n">
+        <v>8</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15.8190476190476</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.0000000140256088288957</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0000124086083269545</v>
+      </c>
+      <c r="K160" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E161" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" t="n">
+        <v>21</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>21.8552631578947</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.0000000142168869916193</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.0000124086083269545</v>
+      </c>
+      <c r="K161" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2786</v>
+      </c>
+      <c r="E162" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="n">
+        <v>7</v>
+      </c>
+      <c r="H162" t="n">
+        <v>21.5714285714286</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.0000000155997051410062</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0000131112632875872</v>
+      </c>
+      <c r="K162" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E163" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="n">
+        <v>13</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5.83121793140697</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.0000000172430011315928</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0000139748365956869</v>
+      </c>
+      <c r="K163" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B164" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" t="s">
+        <v>52</v>
+      </c>
+      <c r="D164" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="n">
+        <v>19</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2.93900167628981</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.0000000186049932098347</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0000145587279624406</v>
+      </c>
+      <c r="K164" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="n">
+        <v>8</v>
+      </c>
+      <c r="H165" t="n">
+        <v>15.0657596371882</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.0000000206681358557752</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0000156340668991702</v>
+      </c>
+      <c r="K165" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7</v>
+      </c>
+      <c r="H166" t="n">
+        <v>20.0120481927711</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.0000000265336355718965</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0000182462967282741</v>
+      </c>
+      <c r="K166" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7</v>
+      </c>
+      <c r="H167" t="n">
+        <v>20.0120481927711</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.0000000265336355718965</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0000182462967282741</v>
+      </c>
+      <c r="K167" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7</v>
+      </c>
+      <c r="H168" t="n">
+        <v>20.0120481927711</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.0000000265336355718965</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0000182462967282741</v>
+      </c>
+      <c r="K168" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B169" t="s">
+        <v>462</v>
+      </c>
+      <c r="C169" t="s">
+        <v>462</v>
+      </c>
+      <c r="D169" t="s">
+        <v>463</v>
+      </c>
+      <c r="E169" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" t="n">
+        <v>16</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3.85830429732869</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.0000000358442805739751</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0000239239487960358</v>
+      </c>
+      <c r="K169" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="n">
+        <v>21</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7</v>
+      </c>
+      <c r="H170" t="n">
+        <v>18.875</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.0000000400679508599986</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0000259789145390271</v>
+      </c>
+      <c r="K170" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="n">
+        <v>21</v>
+      </c>
+      <c r="G171" t="n">
+        <v>6</v>
+      </c>
+      <c r="H171" t="n">
+        <v>27.3791208791209</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.000000046252628867756</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0000291558585248886</v>
+      </c>
+      <c r="K171" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" t="n">
+        <v>21</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7</v>
+      </c>
+      <c r="H172" t="n">
+        <v>18.2527472527473</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.0000000507050871746374</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0000310986633311904</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="n">
+        <v>21</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="n">
+        <v>237.285714285714</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.0000000645344687453106</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.0000375507871599316</v>
+      </c>
+      <c r="K173" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" t="n">
+        <v>21</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3</v>
+      </c>
+      <c r="H174" t="n">
+        <v>237.285714285714</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.0000000645344687453106</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.0000375507871599316</v>
+      </c>
+      <c r="K174" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="n">
+        <v>21</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5</v>
+      </c>
+      <c r="H175" t="n">
+        <v>42.3724489795918</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.0000000735848581422376</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.000041746529645545</v>
+      </c>
+      <c r="K175" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E176" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" t="n">
+        <v>21</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7</v>
+      </c>
+      <c r="H176" t="n">
+        <v>17.1237113402062</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.0000000792801219422012</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.000043880580664253</v>
+      </c>
+      <c r="K176" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E177" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" t="n">
+        <v>21</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7</v>
+      </c>
+      <c r="H177" t="n">
+        <v>16.9489795918367</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.0000000851657611638553</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0000460158718593183</v>
+      </c>
+      <c r="K177" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" t="n">
+        <v>21</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7</v>
+      </c>
+      <c r="H178" t="n">
+        <v>16.7777777777778</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.000000091417278603156</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.0000482449372870097</v>
+      </c>
+      <c r="K178" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E179" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" t="n">
+        <v>21</v>
+      </c>
+      <c r="G179" t="n">
+        <v>14</v>
+      </c>
+      <c r="H179" t="n">
+        <v>4.4471218206158</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.000000107722982715299</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0000555581283354153</v>
+      </c>
+      <c r="K179" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" t="n">
+        <v>21</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6</v>
+      </c>
+      <c r="H180" t="n">
+        <v>23.3395784543325</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.000000123228141086335</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.0000621425823482713</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B181" t="s">
+        <v>218</v>
+      </c>
+      <c r="C181" t="s">
+        <v>218</v>
+      </c>
+      <c r="D181" t="s">
+        <v>219</v>
+      </c>
+      <c r="E181" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G181" t="n">
+        <v>17</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3.16380952380952</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.000000160089506815077</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0000789763299598815</v>
+      </c>
+      <c r="K181" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21</v>
+      </c>
+      <c r="G182" t="n">
+        <v>7</v>
+      </c>
+      <c r="H182" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.000000190112085113065</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0000917917776057614</v>
+      </c>
+      <c r="K182" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E183" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21</v>
+      </c>
+      <c r="G183" t="n">
+        <v>9</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8.89821428571429</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.000000212698737339979</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.00010055775930117</v>
+      </c>
+      <c r="K183" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E184" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21</v>
+      </c>
+      <c r="G184" t="n">
+        <v>6</v>
+      </c>
+      <c r="H184" t="n">
+        <v>20.936974789916</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.000000238521996415913</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.000110464891115639</v>
+      </c>
+      <c r="K184" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>374</v>
+      </c>
+      <c r="D185" t="s">
+        <v>375</v>
+      </c>
+      <c r="E185" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G185" t="n">
+        <v>10</v>
+      </c>
+      <c r="H185" t="n">
+        <v>7.19047619047619</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.000000259618473908413</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.000117830440568072</v>
+      </c>
+      <c r="K185" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E186" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21</v>
+      </c>
+      <c r="G186" t="n">
+        <v>10</v>
+      </c>
+      <c r="H186" t="n">
+        <v>7.06207482993197</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.000000307698449764758</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.000134829807756416</v>
+      </c>
+      <c r="K186" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4</v>
+      </c>
+      <c r="H187" t="n">
+        <v>63.2761904761905</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.000000308956506558569</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.000134829807756416</v>
+      </c>
+      <c r="K187" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7</v>
+      </c>
+      <c r="H188" t="n">
+        <v>13.7272727272727</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.00000036697666729037</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.000154218546496673</v>
+      </c>
+      <c r="K188" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21</v>
+      </c>
+      <c r="G189" t="n">
+        <v>7</v>
+      </c>
+      <c r="H189" t="n">
+        <v>13.7272727272727</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.00000036697666729037</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.000154218546496673</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B190" t="s">
+        <v>238</v>
+      </c>
+      <c r="C190" t="s">
+        <v>238</v>
+      </c>
+      <c r="D190" t="s">
+        <v>239</v>
+      </c>
+      <c r="E190" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" t="n">
+        <v>21</v>
+      </c>
+      <c r="G190" t="n">
+        <v>19</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2.47852038011466</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.000000411243529471938</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.000169597572414639</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E191" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" t="n">
+        <v>21</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>30.4212454212454</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.000000418519545904895</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.000169597572414639</v>
+      </c>
+      <c r="K191" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21</v>
+      </c>
+      <c r="G192" t="n">
+        <v>6</v>
+      </c>
+      <c r="H192" t="n">
+        <v>18.4897959183673</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.00000050469404484401</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.000200930209818336</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E193" t="s">
+        <v>23</v>
+      </c>
+      <c r="F193" t="n">
+        <v>21</v>
+      </c>
+      <c r="G193" t="n">
+        <v>8</v>
+      </c>
+      <c r="H193" t="n">
+        <v>9.93866866118175</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.000000533839823834679</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.000204923850752721</v>
+      </c>
+      <c r="K193" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E194" t="s">
+        <v>29</v>
+      </c>
+      <c r="F194" t="n">
+        <v>21</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5</v>
+      </c>
+      <c r="H194" t="n">
+        <v>28.9372822299652</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.000000541816024552208</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.000204923850752721</v>
+      </c>
+      <c r="K194" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E195" t="s">
+        <v>23</v>
+      </c>
+      <c r="F195" t="n">
+        <v>21</v>
+      </c>
+      <c r="G195" t="n">
+        <v>5</v>
+      </c>
+      <c r="H195" t="n">
+        <v>28.9372822299652</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.000000541816024552208</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.000204923850752721</v>
+      </c>
+      <c r="K195" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21</v>
+      </c>
+      <c r="G196" t="n">
+        <v>7</v>
+      </c>
+      <c r="H196" t="n">
+        <v>12.6793893129771</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.000000632582724658296</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.000231535480172108</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21</v>
+      </c>
+      <c r="G197" t="n">
+        <v>7</v>
+      </c>
+      <c r="H197" t="n">
+        <v>12.6793893129771</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.000000632582724658296</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.000231535480172108</v>
+      </c>
+      <c r="K197" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E198" t="s">
+        <v>29</v>
+      </c>
+      <c r="F198" t="n">
+        <v>21</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>26.9642857142857</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.000000778871329102538</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.000280554397957522</v>
+      </c>
+      <c r="K198" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B199" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" t="s">
+        <v>252</v>
+      </c>
+      <c r="D199" t="s">
+        <v>253</v>
+      </c>
+      <c r="E199" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" t="n">
+        <v>21</v>
+      </c>
+      <c r="G199" t="n">
+        <v>21</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.94724501758499</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.000000803082066637228</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.000284755333409353</v>
+      </c>
+      <c r="K199" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" t="n">
+        <v>21</v>
+      </c>
+      <c r="G200" t="n">
+        <v>7</v>
+      </c>
+      <c r="H200" t="n">
+        <v>12.036231884058</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.000000902390990290814</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.000315045519117991</v>
+      </c>
+      <c r="K200" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E201" t="s">
+        <v>23</v>
+      </c>
+      <c r="F201" t="n">
+        <v>21</v>
+      </c>
+      <c r="G201" t="n">
+        <v>7</v>
+      </c>
+      <c r="H201" t="n">
+        <v>11.8642857142857</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.000000995248681883464</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.000337092213999723</v>
+      </c>
+      <c r="K201" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="n">
+        <v>7</v>
+      </c>
+      <c r="H202" t="n">
+        <v>11.8642857142857</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.000000995248681883464</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.000337092213999723</v>
+      </c>
+      <c r="K202" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="n">
+        <v>9</v>
+      </c>
+      <c r="H203" t="n">
+        <v>7.28863968795709</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.00000116829023622256</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.000389882504861742</v>
+      </c>
+      <c r="K203" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3</v>
+      </c>
+      <c r="H204" t="n">
+        <v>118.642857142857</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.00000128022145018012</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.000421044425636776</v>
+      </c>
+      <c r="K204" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2876</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="n">
+        <v>7</v>
+      </c>
+      <c r="H205" t="n">
+        <v>11.3767123287671</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.00000132349317053594</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.000423014514351721</v>
+      </c>
+      <c r="K205" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="n">
+        <v>7</v>
+      </c>
+      <c r="H206" t="n">
+        <v>11.3767123287671</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.00000132349317053594</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.000423014514351721</v>
+      </c>
+      <c r="K206" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2880</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5</v>
+      </c>
+      <c r="H207" t="n">
+        <v>23.7285714285714</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.000001495196503831</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.00047125686474218</v>
+      </c>
+      <c r="K207" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E208" t="s">
+        <v>29</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="n">
+        <v>6</v>
+      </c>
+      <c r="H208" t="n">
+        <v>15.3087557603687</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.00000155617248123756</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.000483756467352384</v>
+      </c>
+      <c r="K208" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E209" t="s">
+        <v>29</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="n">
+        <v>6</v>
+      </c>
+      <c r="H209" t="n">
+        <v>15.145896656535</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.00000165793572244567</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.000508426153371074</v>
+      </c>
+      <c r="K209" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="n">
+        <v>9</v>
+      </c>
+      <c r="H210" t="n">
+        <v>6.95625872498837</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.0000017322588126903</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.000524135323151746</v>
+      </c>
+      <c r="K210" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2891</v>
+      </c>
+      <c r="E211" t="s">
+        <v>29</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5</v>
+      </c>
+      <c r="H211" t="n">
+        <v>22.3854447439353</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.00000200882070534017</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.000599818003503745</v>
+      </c>
+      <c r="K211" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2893</v>
+      </c>
+      <c r="E212" t="s">
+        <v>29</v>
+      </c>
+      <c r="F212" t="n">
+        <v>21</v>
+      </c>
+      <c r="G212" t="n">
+        <v>14</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.52279957582184</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.00000212909706242802</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.000627475319969859</v>
+      </c>
+      <c r="K212" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>